--- a/biology/Zoologie/Alopia/Alopia.xlsx
+++ b/biology/Zoologie/Alopia/Alopia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopia est un genre de petits gastéropodes terrestres  de la famille des Clausiliidae et dont les espèces se rencontrent en Europe.
 </t>
@@ -511,9 +523,11 @@
           <t>Listes des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (29 mars 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (29 mars 2023) :
 Alopia alpina R.Kimakowicz, 1933
 Alopia balcanica
 Alopia bielzii (L.Pfeiffer, 1849)
@@ -566,10 +580,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Alopia a été initialement créé en 1855 par Henry Adams (1813–1877) et Arthur Adams (1820–1878)[1] comme un sous-genre du genre Clausilia[2].
-Alopia a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Alopia a été initialement créé en 1855 par Henry Adams (1813–1877) et Arthur Adams (1820–1878) comme un sous-genre du genre Clausilia.
+Alopia a pour synonymes :
 Alopina Paetel, 1875
 Eualopia Westerlund, 1884
 Transsilvanica Westerlund, 1890</t>
@@ -600,7 +616,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Henry Adams et Arthur Adams, The genera of recent Mollusca; arranged according to their organization, vol. 2, Londres, J. Van Voorst, 1855, 660 p. (lire en ligne), p. 181.</t>
         </is>
